--- a/Archivos/OKRS/EvaluacionesQ2_20220715_1457.xlsx
+++ b/Archivos/OKRS/EvaluacionesQ2_20220715_1457.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcornejor\Documents\PublicacionesCDOCastillo\ReportesOKRS\Cierre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\work\Work\Git\Actinver\Archivos\OKRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFAFA35-6061-4BA3-B11F-AD1CA7FF46DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="3270"/>
+    <workbookView xWindow="-28920" yWindow="-2205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exportar Hoja de Trabajo" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exportar Hoja de Trabajo'!$A$1:$L$1714</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -10853,7 +10857,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -10918,7 +10922,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11196,18 +11200,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L1714"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
@@ -76350,18 +76354,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1714" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
